--- a/data/department.xlsx
+++ b/data/department.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="734">
   <si>
     <t>铜陵</t>
   </si>
@@ -2215,48 +2215,34 @@
     <t>金钰联合</t>
   </si>
   <si>
-    <r>
-      <t>安信普华(北京</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上海仁立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>融泰公司(安徽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>安信普华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作—德聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融泰公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元营销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓信至诚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2334,56 +2320,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2397,7 +2334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2724,15 +2661,15 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>718</v>
+      <c r="B5" s="4" t="s">
+        <v>730</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>718</v>
@@ -2772,15 +2709,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>724</v>
+      <c r="B11" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>724</v>
@@ -2788,7 +2725,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>725</v>
@@ -2811,8 +2748,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>714</v>
+      <c r="B15" s="4" t="s">
+        <v>733</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>714</v>
